--- a/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 3 без соли.xlsx
+++ b/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 3 без соли.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/by_department/mozzarella/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17609C89-B6F4-6444-989A-06B5B5AFC730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5156B1D-6272-9147-ACFC-86696D3878D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
@@ -1360,18 +1360,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4980,8 +4980,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="40" t="s">
         <v>272</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -5013,7 +5013,7 @@
       <c r="A4" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>275</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -5088,7 +5088,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="44"/>
-      <c r="B6" s="40"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="28" t="s">
         <v>278</v>
       </c>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="44"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="45" t="s">
         <v>279</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -5145,8 +5145,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="29" t="s">
         <v>273</v>
       </c>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="40" t="s">
         <v>272</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -5420,8 +5420,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="27" t="s">
         <v>283</v>
       </c>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="44"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="31" t="s">
         <v>288</v>
       </c>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="44"/>
-      <c r="B36" s="40"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="25" t="s">
         <v>270</v>
       </c>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="44"/>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="40" t="s">
         <v>272</v>
       </c>
       <c r="C37" s="27" t="s">
@@ -6061,8 +6061,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="27" t="s">
         <v>273</v>
       </c>
@@ -6092,7 +6092,7 @@
       <c r="A46" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="43" t="s">
         <v>275</v>
       </c>
       <c r="C46" s="28" t="s">
@@ -6335,7 +6335,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="44"/>
-      <c r="B54" s="40"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="28" t="s">
         <v>276</v>
       </c>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="44"/>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="45" t="s">
         <v>279</v>
       </c>
       <c r="C55" s="29" t="s">
@@ -6532,8 +6532,8 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="29" t="s">
         <v>276</v>
       </c>
@@ -6608,8 +6608,8 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="25" t="s">
         <v>301</v>
       </c>
@@ -6639,7 +6639,7 @@
       <c r="A68" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="43" t="s">
         <v>275</v>
       </c>
       <c r="C68" s="28" t="s">
@@ -6686,7 +6686,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="44"/>
-      <c r="B69" s="40"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="28" t="s">
         <v>273</v>
       </c>
@@ -6714,7 +6714,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="44"/>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="45" t="s">
         <v>279</v>
       </c>
       <c r="C70" s="29" t="s">
@@ -6771,8 +6771,8 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="29" t="s">
         <v>278</v>
       </c>
@@ -6800,27 +6800,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="A22:A43"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="A46:A61"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B36"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="A22:A43"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="A46:A61"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="A68:A72"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6835,11 +6835,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK217"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="16" ySplit="1" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7670,7 +7670,7 @@
         <v>323</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I11" s="32">
         <v>550</v>
@@ -14700,7 +14700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
